--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/WYOMING_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/WYOMING_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -545,7 +545,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C13">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C26">
@@ -1028,7 +1028,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C52">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C61">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C65">
@@ -1298,12 +1298,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C69">
@@ -1316,7 +1316,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C70">
@@ -1355,7 +1355,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C73">
@@ -1368,7 +1368,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C74">
@@ -1407,7 +1407,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1451,7 +1451,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C80">
@@ -1529,7 +1529,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C86">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1617,7 +1617,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C92">
@@ -1700,7 +1700,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C98">
@@ -1739,7 +1739,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C101">
@@ -1765,7 +1765,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C103">
@@ -1809,7 +1809,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C106">
@@ -1939,7 +1939,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C116">
@@ -1952,7 +1952,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C117">
@@ -1991,7 +1991,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C120">
@@ -2017,7 +2017,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C122">
@@ -2056,7 +2056,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C125">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C141">
@@ -2331,7 +2331,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C145">
@@ -2388,7 +2388,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C149">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C151">
@@ -2432,7 +2432,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C152">
@@ -2658,7 +2658,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C169">
@@ -2671,7 +2671,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C170">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C175">
@@ -2754,7 +2754,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C176">
@@ -2767,7 +2767,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C177">
@@ -2850,7 +2850,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C183">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C206">
@@ -3252,7 +3252,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C212">
@@ -3553,7 +3553,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C234">
@@ -3579,7 +3579,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C236">
@@ -3639,41 +3639,6 @@
       </c>
       <c r="D240">
         <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/WYOMING_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/WYOMING_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Guerero</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Praxedis G. Guerero</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Santa Isabel</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Progreso</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Colima</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Vicente Guerero</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>León</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -1553,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1807,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1820,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Juchitlán</t>
@@ -1937,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1950,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -1963,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -1976,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1989,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2002,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Tapalpa</t>
@@ -2015,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2028,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2041,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2054,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2067,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2080,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2111,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ixtlán</t>
@@ -2124,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2137,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2150,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2163,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -2176,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -2189,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -2202,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -2215,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2228,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2241,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2254,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2285,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2316,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -2329,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -2342,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2355,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2386,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -2399,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2430,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -2443,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>San Juan Bautista Atatlahuca</t>
@@ -2456,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -2469,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -2482,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -2495,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -2508,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2539,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Cuautempan</t>
@@ -2552,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -2565,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -2578,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -2591,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Naupan</t>
@@ -2604,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2617,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -2630,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2643,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -2656,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -2669,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2682,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -2695,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Vicente Guerero</t>
@@ -2708,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -2721,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2752,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -2765,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2778,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2809,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -2822,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2835,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>San Martín Chalchicuautla</t>
@@ -2848,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -2861,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -2874,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2905,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -2918,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -2931,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -2944,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -2957,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -2970,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3001,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -3014,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -3027,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3040,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -3053,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3084,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Jalapa</t>
@@ -3097,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3128,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -3141,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -3154,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3185,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Apizaco</t>
@@ -3198,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -3211,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3224,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Cuaxomulco</t>
@@ -3237,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -3250,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -3263,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -3276,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3289,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -3302,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -3315,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -3328,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3359,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -3372,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3385,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -3398,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -3411,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3442,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3473,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -3486,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -3499,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -3512,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -3525,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -3538,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -3551,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -3564,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -3577,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -3590,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -3603,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -3616,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Total</t>
